--- a/data/trans_camb/P1429-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.093040203462769</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.3523996546308455</v>
+        <v>-0.3523996546308457</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.9576988850161166</v>
@@ -655,7 +655,7 @@
         <v>0.3540223537949763</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.864565852615175</v>
+        <v>1.864565852615174</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.019418591278442</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.325225490817473</v>
+        <v>-2.243166299969229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.341688565219323</v>
+        <v>-2.34657636711089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.633847329300338</v>
+        <v>-1.764281350962035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.982077680087099</v>
+        <v>-2.84442145724273</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.659911368104547</v>
+        <v>-1.692682201035063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1460277739125159</v>
+        <v>-0.06497783880652866</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.031015243578293</v>
+        <v>-2.16098447303111</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.435567228743275</v>
+        <v>-1.590336812235266</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2357414297953191</v>
+        <v>-0.2697908541110075</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2473353352318592</v>
+        <v>-0.2412849729845829</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1664686355458938</v>
+        <v>-0.2186956418400028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6201366809313009</v>
+        <v>0.6086253936446078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.016115570053858</v>
+        <v>1.010564623169928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.535442087970003</v>
+        <v>2.54189312394724</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.776631770030145</v>
+        <v>3.966039187360669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.0119534604692824</v>
+        <v>0.0840337135820572</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7902118148812168</v>
+        <v>0.8815505525756639</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.022150886314539</v>
+        <v>1.955064325959421</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7950584661256133</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.256329390251508</v>
+        <v>-0.2563293902515081</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2639766617157543</v>
@@ -760,7 +760,7 @@
         <v>0.09758144296678269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5139421973058474</v>
+        <v>0.5139421973058472</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4082955284197309</v>
@@ -786,25 +786,25 @@
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7111182446040875</v>
+        <v>-0.7563114457391316</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6233010075189906</v>
+        <v>-0.6146581297223285</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3414563779143691</v>
+        <v>-0.3833496853005763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04667144770412027</v>
+        <v>-0.03835264377626935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6685704905016926</v>
+        <v>-0.670442253109387</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4921954394213876</v>
+        <v>-0.5071996608680051</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08858175070249158</v>
+        <v>-0.08652619695170381</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.578607149031244</v>
+        <v>0.3701198617984892</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1986213778940871</v>
+        <v>0.2368929591790445</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9362626974264394</v>
+        <v>0.9687421663503684</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4304551873357866</v>
+        <v>0.4525828054041588</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.981380830299838</v>
+        <v>1.072103326344906</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.479597313290097</v>
+        <v>1.4953043468567</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.001151748838726358</v>
+        <v>0.08213112070505278</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3981276178996385</v>
+        <v>0.4616769811537777</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.050282606604484</v>
+        <v>1.062809482277707</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.9271866800243334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.4832217812463436</v>
+        <v>-0.4832217812463439</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.1898446360182424</v>
@@ -869,7 +869,7 @@
         <v>-0.369272735861894</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4598843852318534</v>
+        <v>0.459884385231854</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.741104826380826</v>
@@ -878,7 +878,7 @@
         <v>-0.6374090091258944</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.001571237057282002</v>
+        <v>-0.001571237057280961</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.181795102536693</v>
+        <v>-2.282467913966578</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.799127626379283</v>
+        <v>-1.801879941676667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.48926989835145</v>
+        <v>-1.421610308851203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.944350229548126</v>
+        <v>-1.748735362636334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.006997963907159</v>
+        <v>-1.906566867658408</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.367953984226969</v>
+        <v>-1.195400385377498</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.79467786001039</v>
+        <v>-1.800097566918349</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.619140733797186</v>
+        <v>-1.626264487674843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8755814768779747</v>
+        <v>-1.002287868687368</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.6466372202973499</v>
+        <v>-0.7467793615565205</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1416421754840219</v>
+        <v>-0.1824779908935489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2795084916234195</v>
+        <v>0.3924304883420243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.532295425716611</v>
+        <v>1.584474428808133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.481648542763933</v>
+        <v>1.497228881676851</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.87564716353556</v>
+        <v>1.892657262934434</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1135623043378238</v>
+        <v>0.1734340630217859</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3712715722235098</v>
+        <v>0.3014299444384871</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.834977606230081</v>
+        <v>0.7678521034310165</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.7114439502199822</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3707831662046875</v>
+        <v>-0.3707831662046877</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.05021001737739128</v>
@@ -974,7 +974,7 @@
         <v>-0.09766507431287591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1216299994478825</v>
+        <v>0.1216299994478826</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2910447468571194</v>
@@ -983,7 +983,7 @@
         <v>-0.2503215970289259</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.0006170521029020743</v>
+        <v>-0.0006170521029016656</v>
       </c>
     </row>
     <row r="14">
@@ -995,28 +995,28 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.9319889472337869</v>
+        <v>-0.9337011200223108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7679378943790606</v>
+        <v>-0.7399163650658358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4020512521187642</v>
+        <v>-0.3847664722070496</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4343282981890233</v>
+        <v>-0.4359427530629153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2681032564844656</v>
+        <v>-0.2469887735531589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5599463532602427</v>
+        <v>-0.5628615404264483</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5275066334814258</v>
+        <v>-0.5236152746899529</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2845607521320502</v>
+        <v>-0.3157409876396169</v>
       </c>
     </row>
     <row r="15">
@@ -1028,28 +1028,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>-0.02389630924522837</v>
+        <v>-0.02592134517930362</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5156604142349351</v>
+        <v>0.6637067720872561</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5169705659359286</v>
+        <v>0.5844348593593993</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5305581302161267</v>
+        <v>0.5479193332269054</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6534211917974708</v>
+        <v>0.65773369100068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05223645233397377</v>
+        <v>0.1021495404010998</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1835086031554093</v>
+        <v>0.1551387106517473</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4231643980708546</v>
+        <v>0.3739193193457936</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>-1.793654332965686</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.235641790907267</v>
+        <v>-1.235641790907265</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.199922944603107</v>
@@ -1088,7 +1088,7 @@
         <v>-0.92698259459493</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.514591930472784</v>
+        <v>-0.5145919304727843</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6565211618620878</v>
+        <v>-0.6824089930925878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6927954979700967</v>
+        <v>-0.7110971720885582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4310684292080865</v>
+        <v>-0.5132183200493109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.827397666186494</v>
+        <v>-4.60048537103781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.027984906891984</v>
+        <v>-4.089264492569263</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.641340897100775</v>
+        <v>-3.393346544114663</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.35216878281267</v>
+        <v>-2.420126327474006</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.202965676993044</v>
+        <v>-2.092958058495664</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.747231979893342</v>
+        <v>-1.75108662195104</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9429840230734602</v>
+        <v>0.908280203372866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4982569418889089</v>
+        <v>0.5001374262589919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9458634759905186</v>
+        <v>0.9446780215190522</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.09820110633900422</v>
+        <v>-0.03315342485095132</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5046469767815754</v>
+        <v>0.5255833477110123</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8275316143332205</v>
+        <v>0.8636389465410967</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.02847495835231299</v>
+        <v>0.03199028114355678</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.362938419962726</v>
+        <v>0.2807334443147068</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5299823573352389</v>
+        <v>0.6134652379046274</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1184,7 @@
         <v>-0.3133757243750132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2158833695973968</v>
+        <v>-0.2158833695973964</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3909442804538217</v>
@@ -1193,7 +1193,7 @@
         <v>-0.3020181796398606</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1676580757879981</v>
+        <v>-0.1676580757879982</v>
       </c>
     </row>
     <row r="20">
@@ -1207,22 +1207,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.6558110232219213</v>
+        <v>-0.6502353578004445</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5792490041735673</v>
+        <v>-0.5929967714424816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5039306942650514</v>
+        <v>-0.4740326088181049</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6231567450773819</v>
+        <v>-0.6333076535906703</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5796001590086254</v>
+        <v>-0.5623226053391241</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4443423116633108</v>
+        <v>-0.4589251874130972</v>
       </c>
     </row>
     <row r="21">
@@ -1236,22 +1236,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>0.0317339581931323</v>
+        <v>0.005729801266840265</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1515812150348591</v>
+        <v>0.120897638107772</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1862207809608286</v>
+        <v>0.2022932288321597</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02644876971097029</v>
+        <v>0.06888322816579624</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1729719532594062</v>
+        <v>0.1287379392156085</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2283648190993125</v>
+        <v>0.2490912325526921</v>
       </c>
     </row>
     <row r="22">
@@ -1281,7 +1281,7 @@
         <v>-1.518116553475083</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6554035574601782</v>
+        <v>0.655403557460179</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4144508484146322</v>
@@ -1290,7 +1290,7 @@
         <v>-1.056208228703948</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3449405334231853</v>
+        <v>0.3449405334231856</v>
       </c>
     </row>
     <row r="23">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.455908150177919</v>
+        <v>-1.433119720794632</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.389619632059581</v>
+        <v>-1.309628141430139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8460947714152995</v>
+        <v>-0.808503146696277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6519640686627134</v>
+        <v>-0.5253046715245224</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.252446147808628</v>
+        <v>-3.202644133090907</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9345273566363086</v>
+        <v>-0.9538152086069552</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7382025608707883</v>
+        <v>-0.6663843560038365</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.992564170037602</v>
+        <v>-2.038744840866579</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6669484471175582</v>
+        <v>-0.6440581210395002</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1815234712660122</v>
+        <v>-0.1145483251229662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1301246389328254</v>
+        <v>0.144239437589802</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.28259305919327</v>
+        <v>1.21848438948187</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.478235146553135</v>
+        <v>3.442890064983684</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05133062397655974</v>
+        <v>0.2313084396183755</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.269660850716914</v>
+        <v>2.156156222701324</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.588726701841602</v>
+        <v>1.490273964646814</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.0963596112073706</v>
+        <v>-0.1175202142152227</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.364655674609593</v>
+        <v>1.3435980907872</v>
       </c>
     </row>
     <row r="25">
@@ -1386,7 +1386,7 @@
         <v>-0.3538263285982678</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1527544337459099</v>
+        <v>0.1527544337459101</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1530528581477795</v>
@@ -1395,7 +1395,7 @@
         <v>-0.3900479123657536</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1273833428822443</v>
+        <v>0.1273833428822445</v>
       </c>
     </row>
     <row r="26">
@@ -1409,28 +1409,28 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9073908606351065</v>
+        <v>-0.900325582485946</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7074684950439574</v>
+        <v>-0.6603846397356412</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1342210700995185</v>
+        <v>-0.1062729191782903</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6099598202503338</v>
+        <v>-0.6253671131875534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1794904610953911</v>
+        <v>-0.1729516401448221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2277604947334187</v>
+        <v>-0.2062863854051465</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6168006891242444</v>
+        <v>-0.6374468410589893</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2135899089277505</v>
+        <v>-0.1993342741182646</v>
       </c>
     </row>
     <row r="27">
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.008424294403237161</v>
+        <v>0.2221141557506981</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6200270327059242</v>
+        <v>0.6671739761929601</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.834067727211354</v>
+        <v>2.301028457015406</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9823243087744771</v>
+        <v>1.012814034822638</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04948410652969283</v>
+        <v>0.07939073179949396</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.69862695436694</v>
+        <v>0.6517629877863286</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7559413285567772</v>
+        <v>0.6780191506484214</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.02576951072531009</v>
+        <v>-0.0421177573769236</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6224696410534942</v>
+        <v>0.6045417617836014</v>
       </c>
     </row>
     <row r="28">
@@ -1495,7 +1495,7 @@
         <v>-0.8530677712089728</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.452643035199142</v>
+        <v>0.4526430351991406</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.560299760274606</v>
@@ -1504,7 +1504,7 @@
         <v>-0.7609651071093577</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.156000542337072</v>
+        <v>0.1560005423370724</v>
       </c>
     </row>
     <row r="29">
@@ -1515,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.248147357041868</v>
+        <v>-1.254345511414412</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.135229964147827</v>
+        <v>-1.132285380335392</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6518341314529257</v>
+        <v>-0.6703880529199482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.236916918945083</v>
+        <v>-1.24490245802353</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.795097399612938</v>
+        <v>-1.728176839188395</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4593069574716102</v>
+        <v>-0.3817791864945256</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.110614065600535</v>
+        <v>-1.131501953107544</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.33694743826209</v>
+        <v>-1.235665552666104</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3554443746599034</v>
+        <v>-0.3384194778159262</v>
       </c>
     </row>
     <row r="30">
@@ -1550,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4662084902176323</v>
+        <v>-0.4841998286087606</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3428123066210814</v>
+        <v>-0.2895443075241938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3372477768248852</v>
+        <v>0.2959746811151037</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7561408590920075</v>
+        <v>0.6680500137679429</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1125461024655733</v>
+        <v>0.2002189481789115</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.263569785532912</v>
+        <v>1.401004881581855</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.01861207164146777</v>
+        <v>-0.05897857126914956</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2384545863826545</v>
+        <v>-0.1988190255617947</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6311467615040696</v>
+        <v>0.6614273749871672</v>
       </c>
     </row>
     <row r="31">
@@ -1600,7 +1600,7 @@
         <v>-0.1984072443121947</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1052761108811948</v>
+        <v>0.1052761108811944</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2081991187634825</v>
@@ -1609,7 +1609,7 @@
         <v>-0.2827633990638847</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.05796749837138162</v>
+        <v>0.05796749837138175</v>
       </c>
     </row>
     <row r="32">
@@ -1620,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9365830477800893</v>
+        <v>-0.9380489670345287</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8373829252600938</v>
+        <v>-0.8258758387833767</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5133171104815935</v>
+        <v>-0.5219807646754945</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.254307432369343</v>
+        <v>-0.2510457878898646</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3676184519711328</v>
+        <v>-0.3664898047614636</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09512901114693105</v>
+        <v>-0.07699519426319999</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3675016329342141</v>
+        <v>-0.3780221483190767</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4397714924802041</v>
+        <v>-0.4097403416191303</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1214854472160031</v>
+        <v>-0.1149029569487331</v>
       </c>
     </row>
     <row r="33">
@@ -1655,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.5047049242455754</v>
+        <v>-0.4894289985497238</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3840972558595646</v>
+        <v>-0.3273761060603413</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4778049996409456</v>
+        <v>0.4110790475270782</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2144933328463896</v>
+        <v>0.1780692457251948</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03995216229509056</v>
+        <v>0.0552282410043035</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3370706063691195</v>
+        <v>0.3775326138639648</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.006041208728845572</v>
+        <v>-0.02327759572301701</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08728391920755529</v>
+        <v>-0.08185514510149197</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2595349806750615</v>
+        <v>0.2815878104117301</v>
       </c>
     </row>
     <row r="34">
